--- a/data/trans_bre/P57_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Clase-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 2,88</t>
+          <t>-7,13; 2,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 0,63</t>
+          <t>-6,99; 0,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-45,97; 24,64</t>
+          <t>-44,47; 23,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-50,01; 7,03</t>
+          <t>-50,05; 7,01</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 8,02</t>
+          <t>-2,95; 7,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 6,14</t>
+          <t>-1,19; 6,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 81,36</t>
+          <t>-20,33; 74,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 79,93</t>
+          <t>-10,15; 81,1</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 17,24</t>
+          <t>-0,39; 16,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 18,55</t>
+          <t>2,04; 18,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 85,62</t>
+          <t>-2,45; 80,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,07; 522,79</t>
+          <t>12,67; 457,47</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 5,55</t>
+          <t>-1,87; 5,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,73; -1,92</t>
+          <t>-11,2; -1,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 32,66</t>
+          <t>-8,97; 30,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-67,73; -13,6</t>
+          <t>-72,62; -12,72</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 9,2</t>
+          <t>-0,89; 9,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 7,56</t>
+          <t>-3,79; 7,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 37,18</t>
+          <t>-2,99; 37,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 43,11</t>
+          <t>-17,56; 43,88</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,6; 23,92</t>
+          <t>15,84; 23,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,43; 21,32</t>
+          <t>13,83; 21,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>164,59; 643,91</t>
+          <t>166,89; 629,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>150,52; 851,44</t>
+          <t>166,87; 945,08</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,99</t>
+          <t>3,05; 7,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,22</t>
+          <t>0,57; 6,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,27; 39,93</t>
+          <t>15,94; 41,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,34; 58,12</t>
+          <t>4,45; 59,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Clase-trans_bre.xlsx
@@ -871,7 +871,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
